--- a/data/trans_dic/P15D$ingresado-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P15D$ingresado-Dificultad-trans_dic.xlsx
@@ -711,37 +711,37 @@
         <v>0</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.08545141334690484</v>
+        <v>0.07928821086712921</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.09106661084600809</v>
+        <v>0.08759193616767051</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.09025380869731832</v>
+        <v>0.0886212511671856</v>
       </c>
       <c r="G5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.06927751636957302</v>
+        <v>0.06807894111183088</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.0652291628048189</v>
+        <v>0.06319565611820888</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.1020423013272522</v>
+        <v>0.09827198042101475</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.03422198861254743</v>
+        <v>0.03990262851793934</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.09344604773466568</v>
+        <v>0.09340783079219706</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.09675481921835527</v>
+        <v>0.09441778913253199</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.1256386979025878</v>
+        <v>0.1173441867713986</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.4470258974962749</v>
+        <v>0.4350361497839262</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.2601592179575388</v>
+        <v>0.2615065938935917</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.2778495737060819</v>
+        <v>0.2700904871109608</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.3376645523482064</v>
+        <v>0.3508120963699078</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.2598882052389743</v>
+        <v>0.2795995266582216</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.2264107885946086</v>
+        <v>0.2265694665484309</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.2517831153449168</v>
+        <v>0.234267455898391</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.399792554409037</v>
+        <v>0.3862130019824279</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.264531759786971</v>
+        <v>0.2872072993989063</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.2031038393509971</v>
+        <v>0.2063724996171249</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.223728153948841</v>
+        <v>0.2179382492658251</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.3228551247242746</v>
+        <v>0.3112478482447065</v>
       </c>
     </row>
     <row r="7">
@@ -809,7 +809,7 @@
         <v>0.1278524341729074</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.09799492055312514</v>
+        <v>0.09799492055312516</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.07190128384987808</v>
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.02747243574381418</v>
+        <v>0.02824787085054982</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.01609932208343471</v>
+        <v>0.01048675760834281</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.05089793628496642</v>
+        <v>0.04484963522046436</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.03410837366309326</v>
+        <v>0.03415206785084845</v>
       </c>
       <c r="G8" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.02455755449356748</v>
+        <v>0.0247827370968949</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.04465686192027164</v>
+        <v>0.04744594344813163</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.08136733738852109</v>
+        <v>0.08166271402653848</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.03074956687609529</v>
+        <v>0.03451220311213232</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.0274622541064796</v>
+        <v>0.02511217386125533</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.06844731336662635</v>
+        <v>0.07713233055921191</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.07284809964648988</v>
+        <v>0.07593243831552962</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.2469244208672611</v>
+        <v>0.253686205323105</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1368897302381545</v>
+        <v>0.1264851729922623</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.2598930095704659</v>
+        <v>0.2458617694540595</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.2297500577426234</v>
+        <v>0.2146748959973082</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.2132023821416775</v>
+        <v>0.2241537347816188</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.1436219440008273</v>
+        <v>0.1356238181930609</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.2686231494263098</v>
+        <v>0.2610963687813981</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.2101244798646582</v>
+        <v>0.2121527344700604</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.1724740692008554</v>
+        <v>0.189532206628821</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.1098426066530714</v>
+        <v>0.1053141487827156</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.208977223176608</v>
+        <v>0.218405664314181</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.1727087762093937</v>
+        <v>0.1783355606062414</v>
       </c>
     </row>
     <row r="10">
@@ -980,16 +980,16 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.02471337043936235</v>
+        <v>0.02522476521635763</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.01424071651015258</v>
+        <v>0.01660336091374285</v>
       </c>
       <c r="E11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.130369442619727</v>
+        <v>0.1296759914283521</v>
       </c>
       <c r="G11" s="5" t="n">
         <v>0</v>
@@ -998,22 +998,22 @@
         <v>0</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.03012119087256364</v>
+        <v>0.02119999824748356</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.008538587484113453</v>
+        <v>0.008175784418015848</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.03014402743560865</v>
+        <v>0.02848791565523661</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.01639915035922682</v>
+        <v>0.01690133264452406</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.02095944775166461</v>
+        <v>0.02079650885510596</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.08333960317543476</v>
+        <v>0.08337498288355501</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.2701958107946691</v>
+        <v>0.2755118687119562</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.128457808245014</v>
+        <v>0.1259902352166828</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.09734290309789294</v>
+        <v>0.1020912487402984</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.3592728479612147</v>
+        <v>0.3780133629799647</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.1858308335948769</v>
+        <v>0.2078331833323745</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.1162077695908842</v>
+        <v>0.103684772856392</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.2147587916752204</v>
+        <v>0.2062065164036116</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.08154599241602647</v>
+        <v>0.08682703898934337</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.1730902164856207</v>
+        <v>0.1807269260460748</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.09139611546645605</v>
+        <v>0.08980358900254197</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.1323720261928679</v>
+        <v>0.1196936766981656</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.2366109872630504</v>
+        <v>0.242724998506005</v>
       </c>
     </row>
     <row r="13">
@@ -1116,16 +1116,16 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.04622643872267722</v>
+        <v>0.04966185902789395</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.01850088559370597</v>
+        <v>0</v>
       </c>
       <c r="E14" s="5" t="n">
         <v>0</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.05181340070251934</v>
+        <v>0.0527156670417661</v>
       </c>
       <c r="G14" s="5" t="inlineStr"/>
       <c r="H14" s="5" t="n">
@@ -1135,19 +1135,19 @@
         <v>0</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.05114385707277303</v>
+        <v>0.05122758955492334</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.03380165270904514</v>
+        <v>0.04325559484715811</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.02638089803841839</v>
+        <v>0.02552257187722809</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.01641110541520178</v>
+        <v>0.01722980618020344</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.06808221949295153</v>
+        <v>0.06865817207030511</v>
       </c>
     </row>
     <row r="15">
@@ -1158,38 +1158,38 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.4305823259001182</v>
+        <v>0.4070367796724316</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1606355752545739</v>
+        <v>0.1499278597591423</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.2172571443554948</v>
+        <v>0.2189533657878584</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.2418399776908035</v>
+        <v>0.2546399796586289</v>
       </c>
       <c r="G15" s="5" t="inlineStr"/>
       <c r="H15" s="5" t="n">
-        <v>0.2940698011028194</v>
+        <v>0.2298259227274586</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.2054013740660581</v>
+        <v>0.2595531477366311</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.1834203856560321</v>
+        <v>0.1901146280062479</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.3012974934023434</v>
+        <v>0.2995167739017189</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.152529729876056</v>
+        <v>0.1453650240187043</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.1491336099792537</v>
+        <v>0.1635525111100488</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.1847224128180357</v>
+        <v>0.1824165584403463</v>
       </c>
     </row>
     <row r="16">
@@ -1213,7 +1213,7 @@
         <v>0.1074862604721474</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.1628787115470358</v>
+        <v>0.1628787115470359</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.05518261887646521</v>
@@ -1248,40 +1248,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.07804604821959625</v>
+        <v>0.07626263756580995</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.05369448762778187</v>
+        <v>0.05420811445738795</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.0653645228906615</v>
+        <v>0.06935172744312088</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.1160517388288644</v>
+        <v>0.1172636391142142</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.0208937692004012</v>
+        <v>0.0210228962118066</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.05006586185945009</v>
+        <v>0.05086875913402818</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.06711440311204078</v>
+        <v>0.07022309481274877</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.08199296686613647</v>
+        <v>0.08155885958613157</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.06073090909449678</v>
+        <v>0.06341780214717381</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.05982568134934324</v>
+        <v>0.05619690411730146</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.07754387736552745</v>
+        <v>0.07746318620976701</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.1077752339586598</v>
+        <v>0.1068163404352013</v>
       </c>
     </row>
     <row r="18">
@@ -1292,40 +1292,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.2116069218749858</v>
+        <v>0.2154323693315216</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.118995376205586</v>
+        <v>0.124390860828819</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.1628077830114805</v>
+        <v>0.1661888603219004</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.2269383484211031</v>
+        <v>0.2310565377963148</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.117329814506223</v>
+        <v>0.125470818817285</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.11419655503792</v>
+        <v>0.1193978249945806</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.1625161789755877</v>
+        <v>0.1656645376462063</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.1707633538740913</v>
+        <v>0.1731030310972194</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.1488987103400248</v>
+        <v>0.1485325471055461</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.1079981242308611</v>
+        <v>0.1063352759318728</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.1457146910805328</v>
+        <v>0.1458152484294196</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.1767560241827791</v>
+        <v>0.1779471819762141</v>
       </c>
     </row>
     <row r="19">
@@ -1599,37 +1599,37 @@
         <v>0</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>6433</v>
+        <v>5969</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>6870</v>
+        <v>6608</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>3774</v>
+        <v>3706</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>5646</v>
+        <v>5549</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>4441</v>
+        <v>4303</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>4957</v>
+        <v>4774</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>1499</v>
+        <v>1748</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>14651</v>
+        <v>14645</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>13887</v>
+        <v>13551</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>11357</v>
+        <v>10607</v>
       </c>
     </row>
     <row r="7">
@@ -1640,40 +1640,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>8449</v>
+        <v>8222</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>19585</v>
+        <v>19686</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>20961</v>
+        <v>20376</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>14119</v>
+        <v>14669</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>6470</v>
+        <v>6961</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>18453</v>
+        <v>18466</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>17143</v>
+        <v>15950</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>19422</v>
+        <v>18763</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>11585</v>
+        <v>12578</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>31843</v>
+        <v>32356</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>32111</v>
+        <v>31280</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>29184</v>
+        <v>28135</v>
       </c>
     </row>
     <row r="8">
@@ -1776,40 +1776,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>945</v>
+        <v>972</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>1523</v>
+        <v>992</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>2550</v>
+        <v>2247</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>1684</v>
+        <v>1687</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>2043</v>
+        <v>2061</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>2169</v>
+        <v>2304</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>5952</v>
+        <v>5974</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>1994</v>
+        <v>2238</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>4883</v>
+        <v>4465</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>6753</v>
+        <v>7610</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>8927</v>
+        <v>9304</v>
       </c>
     </row>
     <row r="11">
@@ -1820,40 +1820,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>8498</v>
+        <v>8730</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>12953</v>
+        <v>11968</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>13021</v>
+        <v>12318</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>11346</v>
+        <v>10601</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>6489</v>
+        <v>6823</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>11945</v>
+        <v>11280</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>13045</v>
+        <v>12680</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>15371</v>
+        <v>15520</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>11185</v>
+        <v>12291</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>19529</v>
+        <v>18724</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>20619</v>
+        <v>21549</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>21163</v>
+        <v>21853</v>
       </c>
     </row>
     <row r="12">
@@ -1956,16 +1956,16 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>1091</v>
+        <v>1114</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>963</v>
+        <v>1122</v>
       </c>
       <c r="E14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>9729</v>
+        <v>9677</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0</v>
@@ -1974,22 +1974,22 @@
         <v>0</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>1510</v>
+        <v>1063</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>476</v>
+        <v>456</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>2099</v>
+        <v>1983</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>2133</v>
+        <v>2198</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>2052</v>
+        <v>2036</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>10868</v>
+        <v>10872</v>
       </c>
     </row>
     <row r="15">
@@ -2000,40 +2000,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>11929</v>
+        <v>12164</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>8683</v>
+        <v>8517</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>4650</v>
+        <v>4876</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>26811</v>
+        <v>28209</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>4734</v>
+        <v>5295</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>7259</v>
+        <v>6476</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>10768</v>
+        <v>10339</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>4548</v>
+        <v>4843</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>12051</v>
+        <v>12583</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>11887</v>
+        <v>11680</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>12960</v>
+        <v>11718</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>30855</v>
+        <v>31652</v>
       </c>
     </row>
     <row r="16">
@@ -2136,16 +2136,16 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>1140</v>
+        <v>1225</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>818</v>
+        <v>0</v>
       </c>
       <c r="E18" s="6" t="n">
         <v>0</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>2860</v>
+        <v>2910</v>
       </c>
       <c r="G18" s="6" t="inlineStr"/>
       <c r="H18" s="6" t="n">
@@ -2155,19 +2155,19 @@
         <v>0</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>2638</v>
+        <v>2642</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>1202</v>
+        <v>1538</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>1860</v>
+        <v>1799</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>783</v>
+        <v>823</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>7270</v>
+        <v>7331</v>
       </c>
     </row>
     <row r="19">
@@ -2178,38 +2178,38 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>10622</v>
+        <v>10042</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>7104</v>
+        <v>6631</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>5499</v>
+        <v>5541</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>13350</v>
+        <v>14056</v>
       </c>
       <c r="G19" s="6" t="inlineStr"/>
       <c r="H19" s="6" t="n">
-        <v>7727</v>
+        <v>6039</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>4607</v>
+        <v>5822</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>9460</v>
+        <v>9806</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>10716</v>
+        <v>10652</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>10753</v>
+        <v>10248</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>7120</v>
+        <v>7808</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>19724</v>
+        <v>19478</v>
       </c>
     </row>
     <row r="20">
@@ -2312,40 +2312,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>9532</v>
+        <v>9314</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>15127</v>
+        <v>15272</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>12983</v>
+        <v>13774</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>25650</v>
+        <v>25918</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>1916</v>
+        <v>1928</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>12687</v>
+        <v>12891</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>12699</v>
+        <v>13287</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>18784</v>
+        <v>18684</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>12986</v>
+        <v>13561</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>32015</v>
+        <v>30073</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>30074</v>
+        <v>30043</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>48511</v>
+        <v>48079</v>
       </c>
     </row>
     <row r="23">
@@ -2356,40 +2356,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>25844</v>
+        <v>26311</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>33524</v>
+        <v>35044</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>32336</v>
+        <v>33008</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>50159</v>
+        <v>51069</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>10759</v>
+        <v>11506</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>28939</v>
+        <v>30257</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>30751</v>
+        <v>31347</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>39120</v>
+        <v>39656</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>31840</v>
+        <v>31761</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>57794</v>
+        <v>56904</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>56513</v>
+        <v>56552</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>79560</v>
+        <v>80096</v>
       </c>
     </row>
     <row r="24">
